--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="427">
   <si>
     <t>ID</t>
   </si>
@@ -2298,11 +2298,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2428,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>35</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>43</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3395,7 +3395,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -3414,7 +3414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3475,7 +3475,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -3494,7 +3494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>63</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>64</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>65</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>66</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>68</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>69</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>70</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>75</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>76</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>79</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>83</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>84</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>85</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>144</v>
       </c>
@@ -6268,7 +6268,9 @@
       <c r="I89" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="J89" s="27"/>
+      <c r="J89" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="K89" s="28"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
@@ -6311,7 +6313,7 @@
         <v>382</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>277</v>
@@ -6357,7 +6359,7 @@
         <v>385</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>277</v>
@@ -6727,7 +6729,7 @@
         <v>405</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>318</v>
@@ -6773,7 +6775,7 @@
         <v>408</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>318</v>
@@ -6981,7 +6983,7 @@
         <v>420</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>325</v>
@@ -7052,7 +7054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -7298,9 +7300,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:T110">
-    <filterColumn colId="2">
+    <filterColumn colId="9">
       <filters>
-        <filter val="RSA"/>
+        <filter val="SI"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="428">
   <si>
     <t>ID</t>
   </si>
@@ -1623,6 +1623,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2f4f313cb2e0ce8e818e774cb40980b61a0afdaa6c3d9b9c9bde5816b4a76f34.84900737e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-12T14:46:11Z</t>
   </si>
 </sst>
 </file>
@@ -2299,10 +2302,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6261,7 +6264,9 @@
       <c r="F89" s="20">
         <v>45058</v>
       </c>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21" t="s">
+        <v>427</v>
+      </c>
       <c r="H89" s="21" t="s">
         <v>378</v>
       </c>
@@ -6731,9 +6736,7 @@
       <c r="J98" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K98" s="9" t="s">
-        <v>318</v>
-      </c>
+      <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -6777,9 +6780,7 @@
       <c r="J99" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K99" s="9" t="s">
-        <v>318</v>
-      </c>
+      <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -6985,9 +6986,7 @@
       <c r="J103" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -1626,6 +1626,9 @@
   </si>
   <si>
     <t>2023-05-12T14:46:11Z</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2305,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6737,11 +6740,21 @@
         <v>24</v>
       </c>
       <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
+      <c r="L98" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
       <c r="S98" s="11"/>
@@ -6781,11 +6794,21 @@
         <v>24</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
+      <c r="L99" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="P99" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
       <c r="S99" s="11"/>
@@ -6987,11 +7010,21 @@
         <v>24</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
+      <c r="L103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P103" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
       <c r="S103" s="11"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -145,12 +145,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>468f0fb0a981c72b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.cede6ca113^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VPS</t>
@@ -213,9 +207,6 @@
     </r>
   </si>
   <si>
-    <t>27f0c67eb1467a60</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
-    <t>e8f165cc935f4b3d</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
-  </si>
-  <si>
-    <t>6a3ca37c5c7fedcc</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -289,22 +274,13 @@
     </r>
   </si>
   <si>
-    <t>77c11a621f049842</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t>c9fe61c98204221d</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
-  </si>
-  <si>
-    <t>4c308b6650898864</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -315,12 +291,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>80a626ab344cd9e2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.9f862fed8bfe50509e72f1dcea4298d7f0e8e104a36945f5fca740aba305c955.b1373e1707^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
@@ -329,12 +299,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>143f42f307e974be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.399df64119b85f5f621cd857f4a3b0c4da16f8c2fea208b047cb09030b2d365a.dd20536123^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
   </si>
   <si>
@@ -343,12 +307,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>0aea3ec81cda3d44</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.d1b065359eb8be8c9c70f6c4bd6565126730dd3fab2feb78edcb271a995c9fd9.2443529803^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
@@ -357,12 +315,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>36e7852cde3b3baa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.6e94fb48e1c52151cae9f6e92aaa212f636837db6585ad84651085b33e28cde8.b5f62a0ee9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
   </si>
   <si>
@@ -371,12 +323,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>516df33a3784ec5c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.7385b9c8ca7ed3f9008706a77a675ae10adde484fd54cad8aaf2d3e637265775.3b6c1c1f80^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
   </si>
   <si>
@@ -385,12 +331,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>c43e6074a2c47edf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.d7aaedb338b890e30360e1a2b8b6b45dda1e3232c8d14b444cbe374a8bbf5c92.14c5ee43a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
@@ -399,12 +339,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>8a68e8cf1d816d74</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.87d3ecb37e827ac7ee069b942a690f90d345af077eec893120fda1ca2c9ef885.c0b4cd4454^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
@@ -413,12 +347,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>0337b171704eec8b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.361214e21078128c6803916c3ec1691fd699dd8fba5436ffa5bc48c57a525b10.fd385cd39e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
   </si>
   <si>
@@ -427,12 +355,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>ba5f7890b1c9dcea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.d5d31f71e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
   </si>
   <si>
@@ -441,12 +363,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>198067274d08f378</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.bf2c48448f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
   </si>
   <si>
@@ -454,12 +370,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>8091ead5d2d66ff4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.692dff2268^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
   </si>
   <si>
@@ -467,12 +377,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>3a66de780030f536</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.1f4c0bb5cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
   </si>
   <si>
@@ -481,12 +385,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>a04e90cf1bf9cf56</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.91d5b2a95c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
   </si>
   <si>
@@ -495,12 +393,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>5e1c1a0580b9f0fd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.38edaedfa8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
   </si>
   <si>
@@ -509,12 +401,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e5c23ad6731c61a3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.253a4b4e4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
   </si>
   <si>
@@ -522,12 +408,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>7729d95515e31bf5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.1a44fd066b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
   </si>
   <si>
@@ -535,12 +415,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c88c97200d0a5a19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.4e386b38dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
   </si>
   <si>
@@ -549,12 +423,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>b715bbb2570a755b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.5.e20bc9577274d534c3ae3ddb666d838d0be1c9d7a34ab7b6ed4bbbefa4def0b7.a9b38ac578^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT5_KO</t>
   </si>
   <si>
@@ -562,12 +430,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c8338f14d1074e2e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.f9f2e06e2c7363e501517fd5f808cbc31abe4f72664b6a8e6c43b94ee520efec.ff53439f33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -575,12 +437,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>98597ff032287521</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.1ba6e98a90da1c2d14294094d94c958d7157b7a93847b2a3cb52c149791c2144.f619ffc37f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT7_KO</t>
   </si>
   <si>
@@ -588,12 +444,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>1140aac75c245d5f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.c65cb0aea7d7edc2cb9d85cd95fb28dbd6aff42e0112be6d86ae447cf8f6cef9.880be43f20^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
   </si>
   <si>
@@ -602,12 +452,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>9ebc699e34a1a6b3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.c14c2a59a7683df2ab5fe26c52b75b9977370d94d4979022686550913534e00c.53bbb8ffb0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
   </si>
   <si>
@@ -615,12 +459,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>11865760e8336e26</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.0632a63de068dabbdde3f1336bfd62e2593f98161fe15cb10b594fc3063bcbc6.14cd95149d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
   </si>
   <si>
@@ -628,12 +466,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>d0d90e366530ddcc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.557cf91c7954bbef8812dc38b60556cb37c126a1606f74b296df3d81b2f49ea1.4bc6210de2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
   </si>
   <si>
@@ -641,12 +473,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>ebaf609b51c43d35</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.977c2560c39cc1f2c5fea1da2dcc702857c751659374ab6d815b3c6da322d754.9e12159d56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
   </si>
   <si>
@@ -655,12 +481,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>3ad2ff669c9fd868</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.1ea30eabfc88b7979cd6216d2b71c5c04899229ad2cf4364685d3c519479f99f.6e6149df3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
   </si>
   <si>
@@ -668,12 +488,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>225604674d35ca7c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.1203961cb9554b6df940b61086ad1ce75bf5d222f36421c5481a5c821ea5fdee.e4788b2b59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
   </si>
   <si>
@@ -681,12 +495,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>dfe1b572327b7ec1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.b5ff20d4c98341b9bd70da41431777b4781fdb0caa019696c3807700b2ccb79f.f8992f2a96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
   </si>
   <si>
@@ -694,12 +502,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>1a3df1d0accf0c15</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.ea65d2acbb22f01c605d39f36ce71a1791f71f1e30845f2207617ee46afd0cda.cc7f09dc2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
   </si>
   <si>
@@ -708,12 +510,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>f28780660190995d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.91196dcff138a2fa4dbd5462e7aa76e0de7ef7347aa1bdab0ce27a294f43e787.81c1262953^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
   </si>
   <si>
@@ -722,12 +518,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>4d374cdd14c026dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.577a7d145bc68ffac2844f0faf42342a6239e3d05baf73bd5bb20dba073276a3.c384db426c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
   </si>
   <si>
@@ -735,12 +525,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>7c8b0fc958d21c23</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.6cb94c45430c6abba6dc3ed1dd909e57bec82d89339428670c7fc28815e2eb1e.f1d47a4fee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
   </si>
   <si>
@@ -748,12 +532,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>21a5a2015bc690e1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.15829b810b36e94aa6b25533ac0a1f36058b236ec9725b09fdba0036349bcad2.07df3c9446^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT25_KO</t>
   </si>
   <si>
@@ -761,12 +539,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>18f51431e7739b19</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.c8dbf3248c39189136dc806744194fb7236b6a76cbc6adad9d04b9d3de7e5683.bb4f1863df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT26_KO</t>
   </si>
   <si>
@@ -774,23 +546,11 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>15e80f182b1dd58f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.cc84bb058d482ca9e2c90308bc7d31b83c2e0719277e4c07866bdda71d1e7972.8e914b3cd6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>563809281ff9b14a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.ce753b33a5bd71ba272cb7c0d6c6e602042405e3e8885bada9511effa646507f.bb1aa21ee9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -894,135 +654,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:01:37Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T16:57:19Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T20:44:08Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T20:04:23Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T17:00:17Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T20:45:31Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T20:02:20Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:03:59Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T08:59:21Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:05:58Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:07:58Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:29:19Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:18:19Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:25:01Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T09:27:27Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:06:24Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T12:56:43Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:08:11Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:09:34Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:11:09Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:13:30Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T10:21:24Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T14:02:53Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T14:05:04Z</t>
-  </si>
-  <si>
-    <t>2023-04-05T14:06:23Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:20:07Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:15:48Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:23:15Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:04:03Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:27:37Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:38:22Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:42:27Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:54:28Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T13:57:36Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:06:55Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:09:16Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:20:40Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:30:08Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:40:35Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:43:22Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:47:46Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:53:27Z</t>
-  </si>
-  <si>
-    <t>2023-04-04T14:57:16Z</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT2</t>
@@ -1433,24 +1064,6 @@
     <t>Campi opzionale non gestito</t>
   </si>
   <si>
-    <t>2023-04-19T10:21:57Z</t>
-  </si>
-  <si>
-    <t>eae8d69bef653d12</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10909.4.4.3.f809870a2f31dbfc9fc9863156cd43458bcd6e663ffabe70190fb7ed28705429.d66be3ffe9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-19T22:51:38Z</t>
-  </si>
-  <si>
-    <t>fa4ce97ac74fa2f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50502.4.4.3.bb7f873163f62145d274bbc8d3b5ef031f5c764ba19e6fd3b81568a884ea7af5.dd1c29b798^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Euromedical Service S.r.l.</t>
   </si>
   <si>
@@ -1463,18 +1076,6 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>2023-05-23T16:52:03Z</t>
-  </si>
-  <si>
-    <t>474d45b06771d5b9</t>
-  </si>
-  <si>
-    <t>f79d363217650f61</t>
-  </si>
-  <si>
-    <t>2023-05-03T16:57:18Z</t>
-  </si>
-  <si>
     <t>2023-05-09T10:31:04Z</t>
   </si>
   <si>
@@ -1629,6 +1230,18 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>2023-06-15T08:45:58Z</t>
+  </si>
+  <si>
+    <t>39ca4090e01f3d61</t>
+  </si>
+  <si>
+    <t>2023-06-15T08:50:08Z</t>
+  </si>
+  <si>
+    <t>f1b6258b62dda099</t>
   </si>
 </sst>
 </file>
@@ -2302,13 +1915,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,21 +1946,21 @@
     </row>
     <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="35" t="s">
-        <v>370</v>
+        <v>241</v>
       </c>
       <c r="D3" s="30"/>
     </row>
@@ -2355,7 +1968,7 @@
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="35" t="s">
-        <v>371</v>
+        <v>242</v>
       </c>
       <c r="D4" s="30"/>
     </row>
@@ -2363,7 +1976,7 @@
       <c r="A5" s="40"/>
       <c r="B5" s="41"/>
       <c r="C5" s="35" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
       <c r="D5" s="30"/>
     </row>
@@ -2434,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2450,20 +2063,12 @@
       <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7">
-        <v>45035</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>365</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2489,20 +2094,20 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2527,20 +2132,20 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2565,20 +2170,20 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2592,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2608,20 +2213,12 @@
       <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -2647,20 +2244,20 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2685,20 +2282,20 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -2723,20 +2320,20 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2750,7 +2347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -2758,28 +2355,20 @@
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7">
-        <v>45036</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>368</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2802,23 +2391,23 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2840,23 +2429,23 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2878,23 +2467,23 @@
         <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2908,7 +2497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -2919,50 +2508,32 @@
         <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
       <c r="S20" s="11"/>
       <c r="T20" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -2973,47 +2544,31 @@
         <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
       <c r="T21" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="26" customFormat="1" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3024,25 +2579,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="20">
-        <v>45049</v>
+        <v>45092</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>24</v>
@@ -3055,22 +2610,22 @@
         <v>24</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="23"/>
       <c r="S22" s="24"/>
       <c r="T22" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>35</v>
       </c>
@@ -3078,53 +2633,35 @@
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="10"/>
       <c r="S23" s="11"/>
       <c r="T23" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -3135,50 +2672,32 @@
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="10"/>
       <c r="S24" s="11"/>
       <c r="T24" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -3189,47 +2708,29 @@
         <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="10"/>
       <c r="S25" s="11"/>
       <c r="T25" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="26" customFormat="1" ht="189" thickBot="1" x14ac:dyDescent="0.4">
@@ -3240,25 +2741,25 @@
         <v>20</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="F26" s="20">
-        <v>45049</v>
+        <v>45092</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>24</v>
@@ -3271,22 +2772,22 @@
         <v>24</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
       <c r="S26" s="24"/>
       <c r="T26" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>43</v>
       </c>
@@ -3294,50 +2795,32 @@
         <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="10"/>
       <c r="S27" s="11"/>
       <c r="T27" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3351,17 +2834,17 @@
         <v>21</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3369,7 +2852,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="10" t="s">
@@ -3377,7 +2860,7 @@
       </c>
       <c r="S28" s="11"/>
       <c r="T28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3391,17 +2874,17 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -3409,7 +2892,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
@@ -3417,7 +2900,7 @@
       </c>
       <c r="S29" s="11"/>
       <c r="T29" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3428,20 +2911,20 @@
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3449,7 +2932,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
@@ -3457,7 +2940,7 @@
       </c>
       <c r="S30" s="11"/>
       <c r="T30" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3468,20 +2951,20 @@
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -3489,7 +2972,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10" t="s">
@@ -3497,10 +2980,10 @@
       </c>
       <c r="S31" s="11"/>
       <c r="T31" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>63</v>
       </c>
@@ -3511,50 +2994,32 @@
         <v>21</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="11"/>
       <c r="T32" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>64</v>
       </c>
@@ -3565,50 +3030,32 @@
         <v>21</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
       <c r="S33" s="11"/>
       <c r="T33" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>65</v>
       </c>
@@ -3619,50 +3066,32 @@
         <v>21</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
       <c r="S34" s="11"/>
       <c r="T34" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>66</v>
       </c>
@@ -3673,50 +3102,32 @@
         <v>21</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
       <c r="S35" s="11"/>
       <c r="T35" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -3727,50 +3138,32 @@
         <v>21</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
       <c r="S36" s="11"/>
       <c r="T36" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>68</v>
       </c>
@@ -3781,50 +3174,32 @@
         <v>21</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="11"/>
       <c r="T37" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>69</v>
       </c>
@@ -3835,50 +3210,32 @@
         <v>21</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
       <c r="S38" s="11"/>
       <c r="T38" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>70</v>
       </c>
@@ -3889,47 +3246,29 @@
         <v>21</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
       <c r="S39" s="11"/>
       <c r="T39" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3943,20 +3282,20 @@
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3967,7 +3306,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="11"/>
       <c r="T40" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3981,20 +3320,20 @@
         <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -4005,7 +3344,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="11"/>
       <c r="T41" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4019,20 +3358,20 @@
         <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -4043,7 +3382,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="11"/>
       <c r="T42" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4057,20 +3396,20 @@
         <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4081,10 +3420,10 @@
       <c r="R43" s="10"/>
       <c r="S43" s="11"/>
       <c r="T43" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>75</v>
       </c>
@@ -4095,50 +3434,32 @@
         <v>26</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
       <c r="S44" s="11"/>
       <c r="T44" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>76</v>
       </c>
@@ -4149,50 +3470,32 @@
         <v>26</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>92</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
       <c r="S45" s="11"/>
       <c r="T45" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -4203,50 +3506,32 @@
         <v>26</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="10"/>
       <c r="S46" s="11"/>
       <c r="T46" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -4257,50 +3542,32 @@
         <v>26</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
       <c r="S47" s="11"/>
       <c r="T47" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>79</v>
       </c>
@@ -4311,50 +3578,32 @@
         <v>26</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
       <c r="S48" s="11"/>
       <c r="T48" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -4365,50 +3614,32 @@
         <v>26</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
       <c r="S49" s="11"/>
       <c r="T49" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -4419,47 +3650,29 @@
         <v>26</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
       <c r="S50" s="11"/>
       <c r="T50" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4473,20 +3686,20 @@
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -4497,10 +3710,10 @@
       <c r="R51" s="10"/>
       <c r="S51" s="11"/>
       <c r="T51" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>83</v>
       </c>
@@ -4511,50 +3724,32 @@
         <v>26</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>116</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
       <c r="S52" s="11"/>
       <c r="T52" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>84</v>
       </c>
@@ -4565,50 +3760,32 @@
         <v>26</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="10"/>
       <c r="S53" s="11"/>
       <c r="T53" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>85</v>
       </c>
@@ -4619,47 +3796,29 @@
         <v>26</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="7">
-        <v>45021</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>124</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="10"/>
       <c r="S54" s="11"/>
       <c r="T54" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4673,20 +3832,20 @@
         <v>26</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4697,7 +3856,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="11"/>
       <c r="T55" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4711,20 +3870,20 @@
         <v>26</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4735,7 +3894,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="11"/>
       <c r="T56" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4749,20 +3908,20 @@
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4773,7 +3932,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="11"/>
       <c r="T57" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4787,20 +3946,20 @@
         <v>26</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4811,7 +3970,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="11"/>
       <c r="T58" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4825,20 +3984,20 @@
         <v>26</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4849,7 +4008,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="11"/>
       <c r="T59" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4863,20 +4022,20 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4887,7 +4046,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="11"/>
       <c r="T60" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4901,20 +4060,20 @@
         <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4925,7 +4084,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="11"/>
       <c r="T61" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4939,20 +4098,20 @@
         <v>26</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -4963,10 +4122,10 @@
       <c r="R62" s="10"/>
       <c r="S62" s="11"/>
       <c r="T62" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -4974,53 +4133,35 @@
         <v>20</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
       <c r="S63" s="11"/>
       <c r="T63" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -5028,53 +4169,35 @@
         <v>20</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
       <c r="S64" s="11"/>
       <c r="T64" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -5082,53 +4205,35 @@
         <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
       <c r="S65" s="11"/>
       <c r="T65" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -5136,53 +4241,35 @@
         <v>20</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
       <c r="S66" s="11"/>
       <c r="T66" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -5190,53 +4277,35 @@
         <v>20</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F67" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
       <c r="S67" s="11"/>
       <c r="T67" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -5244,53 +4313,35 @@
         <v>20</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K68" s="9"/>
-      <c r="L68" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
       <c r="S68" s="11"/>
       <c r="T68" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -5298,53 +4349,35 @@
         <v>20</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>152</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K69" s="9"/>
-      <c r="L69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="10"/>
       <c r="S69" s="11"/>
       <c r="T69" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -5352,53 +4385,35 @@
         <v>20</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="10"/>
       <c r="S70" s="11"/>
       <c r="T70" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -5406,53 +4421,35 @@
         <v>20</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K71" s="9"/>
-      <c r="L71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="10"/>
       <c r="S71" s="11"/>
       <c r="T71" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -5460,53 +4457,35 @@
         <v>20</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="10"/>
       <c r="S72" s="11"/>
       <c r="T72" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -5514,53 +4493,35 @@
         <v>20</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F73" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="10"/>
       <c r="S73" s="11"/>
       <c r="T73" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -5568,50 +4529,32 @@
         <v>20</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="10"/>
       <c r="S74" s="11"/>
       <c r="T74" s="12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5622,23 +4565,23 @@
         <v>20</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5649,7 +4592,7 @@
       <c r="R75" s="10"/>
       <c r="S75" s="11"/>
       <c r="T75" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5660,23 +4603,23 @@
         <v>20</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5687,7 +4630,7 @@
       <c r="R76" s="10"/>
       <c r="S76" s="11"/>
       <c r="T76" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5698,23 +4641,23 @@
         <v>20</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5725,10 +4668,10 @@
       <c r="R77" s="10"/>
       <c r="S77" s="11"/>
       <c r="T77" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -5736,50 +4679,32 @@
         <v>20</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>176</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="10"/>
       <c r="S78" s="11"/>
       <c r="T78" s="12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5790,23 +4715,23 @@
         <v>20</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5817,10 +4742,10 @@
       <c r="R79" s="10"/>
       <c r="S79" s="11"/>
       <c r="T79" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -5828,53 +4753,35 @@
         <v>20</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>180</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K80" s="9"/>
-      <c r="L80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="10"/>
       <c r="S80" s="11"/>
       <c r="T80" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -5882,50 +4789,32 @@
         <v>20</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>184</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="10"/>
       <c r="S81" s="11"/>
       <c r="T81" s="12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5936,23 +4825,23 @@
         <v>20</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5963,10 +4852,10 @@
       <c r="R82" s="10"/>
       <c r="S82" s="11"/>
       <c r="T82" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -5974,53 +4863,35 @@
         <v>20</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F83" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K83" s="9"/>
-      <c r="L83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="10"/>
       <c r="S83" s="11"/>
       <c r="T83" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -6028,53 +4899,35 @@
         <v>20</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="10"/>
       <c r="S84" s="11"/>
       <c r="T84" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>144</v>
       </c>
@@ -6082,50 +4935,32 @@
         <v>20</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="7">
-        <v>45020</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>196</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K85" s="9"/>
-      <c r="L85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>361</v>
-      </c>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="10"/>
       <c r="S85" s="11"/>
       <c r="T85" s="12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6136,23 +4971,23 @@
         <v>20</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -6163,7 +4998,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="11"/>
       <c r="T86" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6174,23 +5009,23 @@
         <v>20</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -6201,7 +5036,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="11"/>
       <c r="T87" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:20" s="26" customFormat="1" ht="218" thickBot="1" x14ac:dyDescent="0.4">
@@ -6212,25 +5047,25 @@
         <v>20</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="F88" s="20">
         <v>45055</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>24</v>
@@ -6256,25 +5091,25 @@
         <v>20</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="F89" s="20">
         <v>45058</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>427</v>
+        <v>294</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="J89" s="27" t="s">
         <v>24</v>
@@ -6300,31 +5135,31 @@
         <v>20</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="F90" s="7">
         <v>45058</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -6346,31 +5181,31 @@
         <v>20</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="F91" s="7">
         <v>45058</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>385</v>
+        <v>252</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -6392,25 +5227,25 @@
         <v>20</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F92" s="7">
         <v>45058</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>386</v>
+        <v>253</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>388</v>
+        <v>255</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -6423,19 +5258,19 @@
         <v>24</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O92" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
       <c r="S92" s="11"/>
       <c r="T92" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6446,25 +5281,25 @@
         <v>20</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="F93" s="7">
         <v>45058</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -6477,19 +5312,19 @@
         <v>24</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O93" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
       <c r="S93" s="11"/>
       <c r="T93" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6500,25 +5335,25 @@
         <v>20</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F94" s="14">
         <v>45058</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>392</v>
+        <v>259</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -6531,19 +5366,19 @@
         <v>24</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O94" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
       <c r="S94" s="11"/>
       <c r="T94" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6554,25 +5389,25 @@
         <v>20</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F95" s="14">
         <v>45058</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>394</v>
+        <v>261</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -6585,19 +5420,19 @@
         <v>24</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O95" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
       <c r="S95" s="11"/>
       <c r="T95" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6608,25 +5443,25 @@
         <v>20</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="F96" s="7">
         <v>45058</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>399</v>
+        <v>266</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -6639,19 +5474,19 @@
         <v>24</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O96" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
       <c r="S96" s="11"/>
       <c r="T96" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6662,25 +5497,25 @@
         <v>20</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F97" s="7">
         <v>45058</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -6693,19 +5528,19 @@
         <v>24</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O97" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
       <c r="S97" s="11"/>
       <c r="T97" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6716,50 +5551,50 @@
         <v>20</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="F98" s="7">
         <v>45058</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>404</v>
+        <v>271</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
       <c r="S98" s="11"/>
       <c r="T98" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6770,50 +5605,50 @@
         <v>20</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="F99" s="7">
         <v>45058</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
       <c r="S99" s="11"/>
       <c r="T99" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6824,25 +5659,25 @@
         <v>20</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="F100" s="7">
         <v>45058</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>410</v>
+        <v>277</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>411</v>
+        <v>278</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -6855,19 +5690,19 @@
         <v>24</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O100" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
       <c r="S100" s="11"/>
       <c r="T100" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6878,25 +5713,25 @@
         <v>20</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="F101" s="7">
         <v>45058</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>413</v>
+        <v>280</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -6909,19 +5744,19 @@
         <v>24</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O101" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
       <c r="S101" s="11"/>
       <c r="T101" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6932,25 +5767,25 @@
         <v>20</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="F102" s="7">
         <v>45058</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>416</v>
+        <v>283</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -6963,19 +5798,19 @@
         <v>24</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O102" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
       <c r="S102" s="11"/>
       <c r="T102" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6986,25 +5821,25 @@
         <v>20</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="F103" s="7">
         <v>45058</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>419</v>
+        <v>286</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>420</v>
+        <v>287</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>24</v>
@@ -7017,19 +5852,19 @@
         <v>24</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O103" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
       <c r="S103" s="11"/>
       <c r="T103" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -7040,25 +5875,25 @@
         <v>20</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="F104" s="7">
         <v>45058</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -7071,19 +5906,19 @@
         <v>24</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O104" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
       <c r="S104" s="11"/>
       <c r="T104" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7094,23 +5929,23 @@
         <v>20</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -7121,7 +5956,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="11"/>
       <c r="T105" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7132,23 +5967,23 @@
         <v>20</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -7159,7 +5994,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="11"/>
       <c r="T106" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7170,23 +6005,23 @@
         <v>20</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
@@ -7197,7 +6032,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="11"/>
       <c r="T107" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7208,23 +6043,23 @@
         <v>20</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -7235,10 +6070,10 @@
       <c r="R108" s="10"/>
       <c r="S108" s="11"/>
       <c r="T108" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -7246,23 +6081,23 @@
         <v>20</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="9" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -7273,10 +6108,10 @@
       <c r="R109" s="10"/>
       <c r="S109" s="11"/>
       <c r="T109" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="174" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -7284,25 +6119,25 @@
         <v>20</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="F110" s="7">
         <v>45058</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -7315,20 +6150,23 @@
         <v>24</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="O110" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>
       <c r="S110" s="11"/>
       <c r="T110" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J111" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:T110">

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -675,9 +675,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Le sezioni opzionali richieste vengono utilizzate solo in parte (utilizzando  /ClinicalDocument/component/structuredBody/component/section/text), in quanto alcune informazioni vengono sintetizzate in fase di redazione della LDO e quindi gestite in modo non strutturato.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
@@ -721,9 +718,6 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Alcune delle sezioni opzionali richieste vengono incluse nel verbale solo nella loro componente narrativa (/ClinicalDocument/component/structuredBody/component/section/component/section/text) in quanto l'informazione viene sintetizzata in fase di redazione del verbale di pronto soccorso.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT3</t>
   </si>
   <si>
@@ -748,9 +742,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>Campi opzionali non gestiti</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
   </si>
   <si>
@@ -852,9 +843,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Campo opzionale non gestito</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
   </si>
   <si>
@@ -874,9 +862,6 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Sezione opzionale non gestita</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT24_KO</t>
@@ -1008,9 +993,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
-  </si>
-  <si>
-    <t>Le sezioni opzionali richieste vengono popolate nella loro componente narrativa (utilizzando /ClinicalDocument/component/structuredBody/component/section/text) ma non nella loro forma strutturata, in quanto alcune delle informazioni afferenti vengono sintetizzate in fase di redazione della LDO e quindi gestite in modo non strutturato.</t>
   </si>
   <si>
     <r>
@@ -1061,9 +1043,6 @@
 E' facoltà della singola azienda, secondo le proprie policy, rendere ciascuna tipologia di errore (come timeout, jwt, sintassi, vocabolario, semantica) visibile o meno all'operatore e, nel caso, se renderla bloccante o meno.</t>
   </si>
   <si>
-    <t>Campi opzionale non gestito</t>
-  </si>
-  <si>
     <t>Euromedical Service S.r.l.</t>
   </si>
   <si>
@@ -1242,6 +1221,9 @@
   </si>
   <si>
     <t>f1b6258b62dda099</t>
+  </si>
+  <si>
+    <t>Tipo Documento non gestito</t>
   </si>
 </sst>
 </file>
@@ -1914,14 +1896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,7 +1931,7 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D2" s="32"/>
     </row>
@@ -1960,7 +1941,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D3" s="30"/>
     </row>
@@ -1968,7 +1949,7 @@
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D4" s="30"/>
     </row>
@@ -1976,7 +1957,7 @@
       <c r="A5" s="40"/>
       <c r="B5" s="41"/>
       <c r="C5" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D5" s="30"/>
     </row>
@@ -2047,7 +2028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2070,7 +2051,9 @@
       <c r="J8" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -2083,7 +2066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2107,7 +2090,7 @@
         <v>146</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2121,7 +2104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2145,7 +2128,7 @@
         <v>146</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2159,7 +2142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2170,10 +2153,10 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -2183,7 +2166,7 @@
         <v>146</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2197,7 +2180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2220,7 +2203,9 @@
       <c r="J12" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -2233,7 +2218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2244,10 +2229,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -2256,8 +2241,8 @@
       <c r="J13" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>154</v>
+      <c r="K13" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2271,7 +2256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2282,10 +2267,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -2294,8 +2279,8 @@
       <c r="J14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>154</v>
+      <c r="K14" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -2309,7 +2294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2320,10 +2305,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -2332,8 +2317,8 @@
       <c r="J15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>154</v>
+      <c r="K15" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2347,7 +2332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -2370,7 +2355,9 @@
       <c r="J16" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -2383,7 +2370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>25</v>
       </c>
@@ -2394,10 +2381,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -2407,7 +2394,7 @@
         <v>146</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2421,7 +2408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>26</v>
       </c>
@@ -2432,10 +2419,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -2445,7 +2432,7 @@
         <v>146</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2459,7 +2446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>27</v>
       </c>
@@ -2470,10 +2457,10 @@
         <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -2483,7 +2470,7 @@
         <v>146</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2497,7 +2484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -2520,7 +2507,9 @@
       <c r="J20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -2533,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -2556,13 +2545,15 @@
       <c r="J21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
@@ -2591,10 +2582,10 @@
         <v>45092</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>34</v>
@@ -2610,13 +2601,13 @@
         <v>24</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="23"/>
@@ -2625,7 +2616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>35</v>
       </c>
@@ -2648,7 +2639,9 @@
       <c r="J23" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2661,7 +2654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -2684,7 +2677,9 @@
       <c r="J24" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2697,7 +2692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -2720,7 +2715,9 @@
       <c r="J25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2753,10 +2750,10 @@
         <v>45092</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>34</v>
@@ -2772,13 +2769,13 @@
         <v>24</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
@@ -2787,7 +2784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>43</v>
       </c>
@@ -2810,7 +2807,9 @@
       <c r="J27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2823,7 +2822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>45</v>
       </c>
@@ -2834,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -2846,13 +2845,15 @@
       <c r="J28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="10" t="s">
@@ -2863,7 +2864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -2874,10 +2875,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -2886,13 +2887,15 @@
       <c r="J29" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
@@ -2903,7 +2906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -2914,10 +2917,10 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -2926,13 +2929,15 @@
       <c r="J30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
@@ -2943,7 +2948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>51</v>
       </c>
@@ -2954,10 +2959,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
@@ -2966,13 +2971,15 @@
       <c r="J31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10" t="s">
@@ -2983,7 +2990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>63</v>
       </c>
@@ -3006,7 +3013,9 @@
       <c r="J32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3019,7 +3028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>64</v>
       </c>
@@ -3042,7 +3051,9 @@
       <c r="J33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -3055,7 +3066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>65</v>
       </c>
@@ -3078,7 +3089,9 @@
       <c r="J34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -3091,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>66</v>
       </c>
@@ -3114,7 +3127,9 @@
       <c r="J35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -3127,7 +3142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -3150,7 +3165,9 @@
       <c r="J36" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -3163,7 +3180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>68</v>
       </c>
@@ -3186,7 +3203,9 @@
       <c r="J37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -3199,7 +3218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>69</v>
       </c>
@@ -3222,7 +3241,9 @@
       <c r="J38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -3235,7 +3256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>70</v>
       </c>
@@ -3258,7 +3279,9 @@
       <c r="J39" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -3271,7 +3294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>71</v>
       </c>
@@ -3282,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
@@ -3295,7 +3318,7 @@
         <v>146</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3309,7 +3332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>72</v>
       </c>
@@ -3320,10 +3343,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
@@ -3333,7 +3356,7 @@
         <v>146</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -3347,7 +3370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>73</v>
       </c>
@@ -3358,10 +3381,10 @@
         <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
@@ -3371,7 +3394,7 @@
         <v>146</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -3385,7 +3408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>74</v>
       </c>
@@ -3396,10 +3419,10 @@
         <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
@@ -3409,7 +3432,7 @@
         <v>146</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -3423,7 +3446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>75</v>
       </c>
@@ -3446,7 +3469,9 @@
       <c r="J44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -3459,7 +3484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>76</v>
       </c>
@@ -3482,7 +3507,9 @@
       <c r="J45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3495,7 +3522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -3518,7 +3545,9 @@
       <c r="J46" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -3531,7 +3560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -3554,7 +3583,9 @@
       <c r="J47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -3567,7 +3598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>79</v>
       </c>
@@ -3590,7 +3621,9 @@
       <c r="J48" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -3603,7 +3636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -3626,7 +3659,9 @@
       <c r="J49" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -3639,7 +3674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -3662,7 +3697,9 @@
       <c r="J50" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -3675,7 +3712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>82</v>
       </c>
@@ -3686,10 +3723,10 @@
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
@@ -3699,7 +3736,7 @@
         <v>146</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -3713,7 +3750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>83</v>
       </c>
@@ -3736,7 +3773,9 @@
       <c r="J52" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -3749,7 +3788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>84</v>
       </c>
@@ -3772,7 +3811,9 @@
       <c r="J53" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -3785,7 +3826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>85</v>
       </c>
@@ -3808,7 +3849,9 @@
       <c r="J54" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -3821,7 +3864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>86</v>
       </c>
@@ -3832,10 +3875,10 @@
         <v>26</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
@@ -3845,7 +3888,7 @@
         <v>146</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -3859,7 +3902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>87</v>
       </c>
@@ -3870,10 +3913,10 @@
         <v>26</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
@@ -3883,7 +3926,7 @@
         <v>146</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -3897,7 +3940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>88</v>
       </c>
@@ -3908,10 +3951,10 @@
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
@@ -3921,7 +3964,7 @@
         <v>146</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -3935,7 +3978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>89</v>
       </c>
@@ -3946,10 +3989,10 @@
         <v>26</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
@@ -3959,7 +4002,7 @@
         <v>146</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -3973,7 +4016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>90</v>
       </c>
@@ -3984,10 +4027,10 @@
         <v>26</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
@@ -3997,7 +4040,7 @@
         <v>146</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4011,7 +4054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>91</v>
       </c>
@@ -4022,10 +4065,10 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
@@ -4035,7 +4078,7 @@
         <v>146</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4049,7 +4092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>92</v>
       </c>
@@ -4060,10 +4103,10 @@
         <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
@@ -4073,7 +4116,7 @@
         <v>146</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4087,7 +4130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -4098,10 +4141,10 @@
         <v>26</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
@@ -4111,7 +4154,7 @@
         <v>146</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -4125,7 +4168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -4148,7 +4191,9 @@
       <c r="J63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4161,7 +4206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -4184,7 +4229,9 @@
       <c r="J64" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -4197,7 +4244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -4220,7 +4267,9 @@
       <c r="J65" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K65" s="9"/>
+      <c r="K65" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -4233,7 +4282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -4256,7 +4305,9 @@
       <c r="J66" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -4269,7 +4320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -4292,7 +4343,9 @@
       <c r="J67" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -4305,7 +4358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -4328,7 +4381,9 @@
       <c r="J68" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -4341,7 +4396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -4364,7 +4419,9 @@
       <c r="J69" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K69" s="9"/>
+      <c r="K69" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -4377,7 +4434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -4400,7 +4457,9 @@
       <c r="J70" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -4413,7 +4472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -4436,7 +4495,9 @@
       <c r="J71" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -4449,7 +4510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -4472,7 +4533,9 @@
       <c r="J72" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -4485,7 +4548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -4508,7 +4571,9 @@
       <c r="J73" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K73" s="9"/>
+      <c r="K73" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -4521,7 +4586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -4544,7 +4609,9 @@
       <c r="J74" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -4557,7 +4624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -4568,10 +4635,10 @@
         <v>29</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
@@ -4581,7 +4648,7 @@
         <v>146</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -4595,7 +4662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -4606,10 +4673,10 @@
         <v>29</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
@@ -4619,7 +4686,7 @@
         <v>146</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -4633,7 +4700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -4644,10 +4711,10 @@
         <v>29</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
@@ -4657,7 +4724,7 @@
         <v>146</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -4671,7 +4738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -4694,7 +4761,9 @@
       <c r="J78" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -4707,7 +4776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -4718,10 +4787,10 @@
         <v>29</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
@@ -4731,7 +4800,7 @@
         <v>146</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -4745,7 +4814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -4768,7 +4837,9 @@
       <c r="J80" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -4781,7 +4852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -4804,7 +4875,9 @@
       <c r="J81" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -4817,7 +4890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -4828,10 +4901,10 @@
         <v>29</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
@@ -4841,7 +4914,7 @@
         <v>146</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -4855,7 +4928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -4878,7 +4951,9 @@
       <c r="J83" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K83" s="9"/>
+      <c r="K83" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -4891,7 +4966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -4914,7 +4989,9 @@
       <c r="J84" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K84" s="9"/>
+      <c r="K84" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -4927,7 +5004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>144</v>
       </c>
@@ -4950,7 +5027,9 @@
       <c r="J85" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K85" s="9"/>
+      <c r="K85" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -4963,7 +5042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -4974,10 +5053,10 @@
         <v>29</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -4987,7 +5066,7 @@
         <v>146</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -5001,7 +5080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -5012,10 +5091,10 @@
         <v>29</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -5025,7 +5104,7 @@
         <v>146</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -5059,13 +5138,13 @@
         <v>45055</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>24</v>
@@ -5094,22 +5173,22 @@
         <v>37</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F89" s="20">
         <v>45058</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J89" s="27" t="s">
         <v>24</v>
@@ -5138,28 +5217,28 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F90" s="7">
         <v>45058</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -5184,28 +5263,28 @@
         <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F91" s="7">
         <v>45058</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -5239,13 +5318,13 @@
         <v>45058</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5258,13 +5337,13 @@
         <v>24</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O92" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
@@ -5293,13 +5372,13 @@
         <v>45058</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5312,13 +5391,13 @@
         <v>24</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O93" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
@@ -5347,13 +5426,13 @@
         <v>45058</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5366,13 +5445,13 @@
         <v>24</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O94" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
@@ -5401,13 +5480,13 @@
         <v>45058</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5420,13 +5499,13 @@
         <v>24</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O95" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
@@ -5455,13 +5534,13 @@
         <v>45058</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5474,13 +5553,13 @@
         <v>24</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O96" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
@@ -5509,13 +5588,13 @@
         <v>45058</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5528,13 +5607,13 @@
         <v>24</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O97" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
@@ -5554,41 +5633,41 @@
         <v>37</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F98" s="7">
         <v>45058</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
@@ -5608,41 +5687,41 @@
         <v>37</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F99" s="7">
         <v>45058</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
@@ -5671,13 +5750,13 @@
         <v>45058</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5690,13 +5769,13 @@
         <v>24</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O100" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
@@ -5725,13 +5804,13 @@
         <v>45058</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5744,13 +5823,13 @@
         <v>24</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O101" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
@@ -5779,13 +5858,13 @@
         <v>45058</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5798,13 +5877,13 @@
         <v>24</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O102" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
@@ -5824,22 +5903,22 @@
         <v>37</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F103" s="7">
         <v>45058</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>24</v>
@@ -5852,13 +5931,13 @@
         <v>24</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O103" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
@@ -5887,13 +5966,13 @@
         <v>45058</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -5906,13 +5985,13 @@
         <v>24</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O104" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
@@ -5921,7 +6000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -5932,10 +6011,10 @@
         <v>37</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
@@ -5945,7 +6024,7 @@
         <v>146</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -5959,7 +6038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -5970,10 +6049,10 @@
         <v>37</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
@@ -5983,7 +6062,7 @@
         <v>146</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -5997,7 +6076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -6008,10 +6087,10 @@
         <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
@@ -6021,7 +6100,7 @@
         <v>146</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
@@ -6035,7 +6114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -6046,10 +6125,10 @@
         <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
@@ -6059,7 +6138,7 @@
         <v>146</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -6073,7 +6152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -6084,10 +6163,10 @@
         <v>37</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
@@ -6097,7 +6176,7 @@
         <v>146</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -6131,13 +6210,13 @@
         <v>45058</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -6150,13 +6229,13 @@
         <v>24</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O110" s="9" t="s">
         <v>24</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>
@@ -6169,13 +6248,6 @@
       <c r="J111" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:T110">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -664,9 +664,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
   </si>
   <si>
@@ -1223,7 +1220,7 @@
     <t>f1b6258b62dda099</t>
   </si>
   <si>
-    <t>Tipo Documento non gestito</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1899,10 +1896,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1931,7 +1928,7 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="32"/>
     </row>
@@ -1941,7 +1938,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="30"/>
     </row>
@@ -1949,7 +1946,7 @@
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="30"/>
     </row>
@@ -1957,7 +1954,7 @@
       <c r="A5" s="40"/>
       <c r="B5" s="41"/>
       <c r="C5" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="30"/>
     </row>
@@ -2049,11 +2046,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>293</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -2086,12 +2081,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -2115,21 +2106,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -2153,21 +2140,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -2200,12 +2183,8 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -2229,21 +2208,17 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2267,21 +2242,17 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2305,21 +2276,17 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -2352,12 +2319,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -2381,21 +2344,17 @@
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2419,21 +2378,17 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -2457,21 +2412,17 @@
         <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -2504,12 +2455,8 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -2542,18 +2489,14 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
@@ -2582,10 +2525,10 @@
         <v>45092</v>
       </c>
       <c r="G22" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>289</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>290</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>34</v>
@@ -2601,13 +2544,13 @@
         <v>24</v>
       </c>
       <c r="N22" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="23"/>
@@ -2636,12 +2579,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2674,12 +2613,8 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2712,12 +2647,8 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2750,10 +2681,10 @@
         <v>45092</v>
       </c>
       <c r="G26" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>34</v>
@@ -2769,13 +2700,13 @@
         <v>24</v>
       </c>
       <c r="N26" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
@@ -2804,12 +2735,8 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2833,27 +2760,23 @@
         <v>21</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="10" t="s">
@@ -2875,27 +2798,23 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
@@ -2917,27 +2836,23 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
@@ -2959,27 +2874,23 @@
         <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10" t="s">
@@ -3010,12 +2921,8 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3048,12 +2955,8 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -3086,12 +2989,8 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -3124,12 +3023,8 @@
       <c r="G35" s="8"/>
       <c r="H35" s="13"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -3162,12 +3057,8 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -3200,12 +3091,8 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -3238,12 +3125,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -3276,12 +3159,8 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -3305,21 +3184,17 @@
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -3343,21 +3218,17 @@
         <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -3381,21 +3252,17 @@
         <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -3419,21 +3286,17 @@
         <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -3466,12 +3329,8 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -3504,12 +3363,8 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3542,12 +3397,8 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -3580,12 +3431,8 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -3618,12 +3465,8 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -3656,12 +3499,8 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -3694,12 +3533,8 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -3723,21 +3558,17 @@
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -3770,12 +3601,8 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -3808,12 +3635,8 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -3846,12 +3669,8 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -3875,21 +3694,17 @@
         <v>26</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -3913,21 +3728,17 @@
         <v>26</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -3951,21 +3762,17 @@
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -3989,21 +3796,17 @@
         <v>26</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -4027,21 +3830,17 @@
         <v>26</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -4065,21 +3864,17 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -4103,21 +3898,17 @@
         <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -4141,21 +3932,17 @@
         <v>26</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -4188,12 +3975,8 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4226,12 +4009,8 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -4264,12 +4043,8 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -4302,12 +4077,8 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -4340,12 +4111,8 @@
       <c r="G67" s="8"/>
       <c r="H67" s="13"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -4378,12 +4145,8 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -4416,12 +4179,8 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -4454,12 +4213,8 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -4492,12 +4247,8 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -4530,12 +4281,8 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -4568,12 +4315,8 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -4606,12 +4349,8 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -4635,21 +4374,17 @@
         <v>29</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -4673,21 +4408,17 @@
         <v>29</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -4711,21 +4442,17 @@
         <v>29</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -4758,12 +4485,8 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -4787,21 +4510,17 @@
         <v>29</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -4834,12 +4553,8 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -4872,12 +4587,8 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -4901,21 +4612,17 @@
         <v>29</v>
       </c>
       <c r="D82" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -4948,12 +4655,8 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -4986,12 +4689,8 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -5024,12 +4723,8 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -5053,21 +4748,17 @@
         <v>29</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -5091,21 +4782,17 @@
         <v>29</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -5138,13 +4825,13 @@
         <v>45055</v>
       </c>
       <c r="G88" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="H88" s="21" t="s">
+      <c r="I88" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>24</v>
@@ -5173,22 +4860,22 @@
         <v>37</v>
       </c>
       <c r="D89" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="F89" s="20">
         <v>45058</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H89" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I89" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="J89" s="27" t="s">
         <v>24</v>
@@ -5217,28 +4904,28 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="F90" s="7">
         <v>45058</v>
       </c>
       <c r="G90" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H90" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -5263,28 +4950,28 @@
         <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="F91" s="7">
         <v>45058</v>
       </c>
       <c r="G91" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -5318,13 +5005,13 @@
         <v>45058</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H92" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="I92" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5337,13 +5024,13 @@
         <v>24</v>
       </c>
       <c r="N92" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P92" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P92" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
@@ -5372,13 +5059,13 @@
         <v>45058</v>
       </c>
       <c r="G93" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H93" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5391,13 +5078,13 @@
         <v>24</v>
       </c>
       <c r="N93" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P93" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P93" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
@@ -5426,13 +5113,13 @@
         <v>45058</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5445,13 +5132,13 @@
         <v>24</v>
       </c>
       <c r="N94" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P94" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
@@ -5480,13 +5167,13 @@
         <v>45058</v>
       </c>
       <c r="G95" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="I95" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5499,13 +5186,13 @@
         <v>24</v>
       </c>
       <c r="N95" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P95" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P95" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
@@ -5534,13 +5221,13 @@
         <v>45058</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="I96" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5553,13 +5240,13 @@
         <v>24</v>
       </c>
       <c r="N96" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P96" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P96" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
@@ -5588,13 +5275,13 @@
         <v>45058</v>
       </c>
       <c r="G97" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="I97" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5607,13 +5294,13 @@
         <v>24</v>
       </c>
       <c r="N97" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P97" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
@@ -5633,41 +5320,41 @@
         <v>37</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F98" s="7">
         <v>45058</v>
       </c>
       <c r="G98" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="I98" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N98" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="P98" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
@@ -5687,41 +5374,41 @@
         <v>37</v>
       </c>
       <c r="D99" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="F99" s="7">
         <v>45058</v>
       </c>
       <c r="G99" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="I99" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N99" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="P99" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="P99" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
@@ -5750,13 +5437,13 @@
         <v>45058</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="I100" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5769,13 +5456,13 @@
         <v>24</v>
       </c>
       <c r="N100" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
@@ -5804,13 +5491,13 @@
         <v>45058</v>
       </c>
       <c r="G101" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="I101" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5823,13 +5510,13 @@
         <v>24</v>
       </c>
       <c r="N101" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O101" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P101" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
@@ -5858,13 +5545,13 @@
         <v>45058</v>
       </c>
       <c r="G102" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5877,13 +5564,13 @@
         <v>24</v>
       </c>
       <c r="N102" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O102" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
@@ -5903,22 +5590,22 @@
         <v>37</v>
       </c>
       <c r="D103" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F103" s="7">
         <v>45058</v>
       </c>
       <c r="G103" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H103" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="I103" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>24</v>
@@ -5931,13 +5618,13 @@
         <v>24</v>
       </c>
       <c r="N103" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P103" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O103" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
@@ -5966,13 +5653,13 @@
         <v>45058</v>
       </c>
       <c r="G104" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H104" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="I104" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -5985,13 +5672,13 @@
         <v>24</v>
       </c>
       <c r="N104" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P104" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
@@ -6011,21 +5698,17 @@
         <v>37</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -6049,21 +5732,17 @@
         <v>37</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -6087,21 +5766,17 @@
         <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -6125,21 +5800,17 @@
         <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -6163,21 +5834,17 @@
         <v>37</v>
       </c>
       <c r="D109" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -6210,13 +5877,13 @@
         <v>45058</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="I110" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -6229,13 +5896,13 @@
         <v>24</v>
       </c>
       <c r="N110" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="O110" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P110" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -1221,6 +1221,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +1899,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="N50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2749,7 +2752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>45</v>
       </c>
@@ -2775,13 +2778,9 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="R28" s="10"/>
       <c r="S28" s="11"/>
       <c r="T28" s="12" t="s">
         <v>35</v>
@@ -5707,7 +5706,9 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -5741,7 +5742,9 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9"/>
+      <c r="J106" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -5775,7 +5778,9 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9"/>
+      <c r="J107" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
@@ -5809,7 +5814,9 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -5843,7 +5850,9 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9"/>
+      <c r="J109" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -5915,6 +5924,7 @@
       <c r="J111" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:T110"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -1221,9 +1221,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1899,10 +1896,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="N50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5706,9 +5703,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -5742,9 +5737,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -5778,9 +5771,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
@@ -5814,9 +5805,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -5850,9 +5839,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="295">
   <si>
     <t>ID</t>
   </si>
@@ -1221,6 +1221,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Non gestito</t>
   </si>
 </sst>
 </file>
@@ -1893,13 +1899,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="E107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2025,7 +2032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>25</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>26</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>27</v>
       </c>
@@ -2435,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>29</v>
       </c>
@@ -2469,7 +2476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>35</v>
       </c>
@@ -2593,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>43</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>45</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -2859,7 +2866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>51</v>
       </c>
@@ -2897,7 +2904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>63</v>
       </c>
@@ -2931,7 +2938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>64</v>
       </c>
@@ -2965,7 +2972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>65</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>66</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>68</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>69</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>70</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>71</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>72</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>73</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>74</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>75</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>76</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -3407,7 +3414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -3441,7 +3448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>79</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>82</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>83</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>84</v>
       </c>
@@ -3645,7 +3652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>85</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>86</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>87</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>88</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>89</v>
       </c>
@@ -3815,7 +3822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>90</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>91</v>
       </c>
@@ -3883,7 +3890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>92</v>
       </c>
@@ -3917,7 +3924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -4087,7 +4094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -4121,7 +4128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -4155,7 +4162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -4189,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -4359,7 +4366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -4427,7 +4434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -4529,7 +4536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>144</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -4767,7 +4774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -5703,8 +5710,12 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="J105" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -5737,8 +5748,12 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="J106" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -5771,8 +5786,12 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="J107" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -5805,8 +5824,12 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="J108" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -5839,8 +5862,12 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="J109" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -5911,7 +5938,13 @@
       <c r="J111" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:T110"/>
+  <autoFilter ref="A7:T110">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>

--- a/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111EUROMEDICAL/EUROMEDICAL/MEDIWEB/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -688,9 +688,6 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Le informazioni logicamente afferenti alle sezioni opzionali richieste nel test sono incluse in modo non strutturato nella sezione "Referto".</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT3</t>
   </si>
   <si>
@@ -1055,30 +1052,9 @@
     <t>2023-05-09T10:31:04Z</t>
   </si>
   <si>
-    <t>11dd9d6006dd296b</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2f4f313cb2e0ce8e818e774cb40980b61a0afdaa6c3d9b9c9bde5816b4a76f34.d079c92dfa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-05-12T14:57:30Z</t>
-  </si>
-  <si>
-    <t>a6e84cfd5ae7aa23</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2f4f313cb2e0ce8e818e774cb40980b61a0afdaa6c3d9b9c9bde5816b4a76f34.3b969b6aa8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-12T15:10:09Z</t>
-  </si>
-  <si>
-    <t>b5032a90e4700c0c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2f4f313cb2e0ce8e818e774cb40980b61a0afdaa6c3d9b9c9bde5816b4a76f34.06279f2b69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-05-12T15:18:30Z</t>
   </si>
   <si>
@@ -1202,24 +1178,9 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2f4f313cb2e0ce8e818e774cb40980b61a0afdaa6c3d9b9c9bde5816b4a76f34.84900737e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-05-12T14:46:11Z</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>2023-06-15T08:45:58Z</t>
-  </si>
-  <si>
-    <t>39ca4090e01f3d61</t>
-  </si>
-  <si>
-    <t>2023-06-15T08:50:08Z</t>
-  </si>
-  <si>
-    <t>f1b6258b62dda099</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1227,13 +1188,31 @@
   </si>
   <si>
     <t>Non gestito</t>
+  </si>
+  <si>
+    <t>5ef067ff5db57808</t>
+  </si>
+  <si>
+    <t>Applicativo non gestisce alcune sezioni opzionali</t>
+  </si>
+  <si>
+    <t>2ec8a1d3fee31b96</t>
+  </si>
+  <si>
+    <t>2023-06-27T09:30:55Z</t>
+  </si>
+  <si>
+    <t>af572281ebe37c01</t>
+  </si>
+  <si>
+    <t>2023-06-27T09:36:10Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,12 +1277,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1588,12 +1561,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1619,6 +1586,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1903,10 +1876,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1930,44 +1903,44 @@
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="37.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2053,7 +2026,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2249,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -2283,10 +2256,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -2351,10 +2324,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -2385,10 +2358,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -2419,10 +2392,10 @@
         <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -2503,7 +2476,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
@@ -2529,13 +2502,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="20">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>34</v>
@@ -2551,13 +2524,13 @@
         <v>24</v>
       </c>
       <c r="N22" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="23"/>
@@ -2685,13 +2658,13 @@
         <v>41</v>
       </c>
       <c r="F26" s="20">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>34</v>
@@ -2707,13 +2680,13 @@
         <v>24</v>
       </c>
       <c r="N26" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
@@ -2767,10 +2740,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -2801,10 +2774,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -2817,7 +2790,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
@@ -2839,10 +2812,10 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -2855,7 +2828,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
@@ -2877,10 +2850,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
@@ -2893,7 +2866,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="10" t="s">
@@ -3187,10 +3160,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
@@ -3221,10 +3194,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
@@ -3255,10 +3228,10 @@
         <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
@@ -3289,10 +3262,10 @@
         <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
@@ -3561,10 +3534,10 @@
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
@@ -3697,10 +3670,10 @@
         <v>26</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
@@ -3731,10 +3704,10 @@
         <v>26</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
@@ -3765,10 +3738,10 @@
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
@@ -3799,10 +3772,10 @@
         <v>26</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
@@ -3833,10 +3806,10 @@
         <v>26</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
@@ -3867,10 +3840,10 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
@@ -3901,10 +3874,10 @@
         <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
@@ -3935,10 +3908,10 @@
         <v>26</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
@@ -4377,10 +4350,10 @@
         <v>29</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
@@ -4411,10 +4384,10 @@
         <v>29</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
@@ -4445,10 +4418,10 @@
         <v>29</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
@@ -4513,10 +4486,10 @@
         <v>29</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
@@ -4615,10 +4588,10 @@
         <v>29</v>
       </c>
       <c r="D82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
@@ -4751,10 +4724,10 @@
         <v>29</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -4785,10 +4758,10 @@
         <v>29</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -4828,13 +4801,13 @@
         <v>45055</v>
       </c>
       <c r="G88" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I88" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>238</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>24</v>
@@ -4863,27 +4836,21 @@
         <v>37</v>
       </c>
       <c r="D89" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F89" s="20">
-        <v>45058</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K89" s="28"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K89" s="41" t="s">
+        <v>283</v>
+      </c>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
@@ -4907,28 +4874,20 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F90" s="7">
-        <v>45058</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>152</v>
+        <v>280</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -4953,28 +4912,20 @@
         <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F91" s="7">
-        <v>45058</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>152</v>
+        <v>280</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -5008,13 +4959,13 @@
         <v>45058</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5027,13 +4978,13 @@
         <v>24</v>
       </c>
       <c r="N92" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P92" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P92" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
@@ -5062,13 +5013,13 @@
         <v>45058</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5081,13 +5032,13 @@
         <v>24</v>
       </c>
       <c r="N93" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P93" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P93" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
@@ -5116,13 +5067,13 @@
         <v>45058</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5135,13 +5086,13 @@
         <v>24</v>
       </c>
       <c r="N94" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P94" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
@@ -5170,13 +5121,13 @@
         <v>45058</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5189,13 +5140,13 @@
         <v>24</v>
       </c>
       <c r="N95" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P95" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P95" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
@@ -5224,13 +5175,13 @@
         <v>45058</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5243,13 +5194,13 @@
         <v>24</v>
       </c>
       <c r="N96" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P96" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P96" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
@@ -5278,13 +5229,13 @@
         <v>45058</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5297,13 +5248,13 @@
         <v>24</v>
       </c>
       <c r="N97" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P97" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
@@ -5323,41 +5274,41 @@
         <v>37</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="F98" s="7">
         <v>45058</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="N98" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="P98" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
@@ -5377,41 +5328,41 @@
         <v>37</v>
       </c>
       <c r="D99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F99" s="7">
         <v>45058</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="N99" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="P99" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="P99" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
@@ -5440,13 +5391,13 @@
         <v>45058</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5459,13 +5410,13 @@
         <v>24</v>
       </c>
       <c r="N100" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
@@ -5494,13 +5445,13 @@
         <v>45058</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5513,13 +5464,13 @@
         <v>24</v>
       </c>
       <c r="N101" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O101" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P101" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
@@ -5548,13 +5499,13 @@
         <v>45058</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5567,13 +5518,13 @@
         <v>24</v>
       </c>
       <c r="N102" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O102" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
@@ -5593,22 +5544,22 @@
         <v>37</v>
       </c>
       <c r="D103" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="F103" s="7">
         <v>45058</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>24</v>
@@ -5621,13 +5572,13 @@
         <v>24</v>
       </c>
       <c r="N103" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P103" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O103" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
@@ -5656,13 +5607,13 @@
         <v>45058</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -5675,13 +5626,13 @@
         <v>24</v>
       </c>
       <c r="N104" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P104" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
@@ -5701,20 +5652,20 @@
         <v>37</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -5739,20 +5690,20 @@
         <v>37</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -5777,20 +5728,20 @@
         <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
@@ -5815,20 +5766,20 @@
         <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -5853,20 +5804,20 @@
         <v>37</v>
       </c>
       <c r="D109" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -5900,13 +5851,13 @@
         <v>45058</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -5919,13 +5870,13 @@
         <v>24</v>
       </c>
       <c r="N110" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="O110" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P110" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>
